--- a/누리봄api.xlsx
+++ b/누리봄api.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="97">
   <si>
     <t>url</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -54,10 +54,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{String contentId, String contentTypeid}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>좋아요 누르기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -94,10 +90,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{String keyword}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>관광지 리뷰 전체보기</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -114,10 +106,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{String userid, String email, String password, file image}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>id중복체크</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -150,15 +138,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>get('/list/:keyword')</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>post('/modify')</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{String userid, String email, file image}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -374,6 +354,1117 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{String userid, String email, String password, file </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>img</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{ message: 'please input all of userid, email, password.'}     { message: 'ok' }  userid가 이미 존재할 때 {message: 'user exist'}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>serid를 입력안했을 때 {message: 'no user'}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost('/login')</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String email, String password}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>message:'ok', userid:'joo'}     {message:'fail'}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{String userid, String email, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">String modify_userid, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">file </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>img</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>('/list')</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String keyword, String local, String userid}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contentid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>contenttypeid, String userid</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mypage</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ypage첫화면 들어갈때</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et('/:userid')</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String userid}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>result: { triplike:'', courselike:'', coursecomment: '', tripreviews: '', course: ''}}  (모두 int)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>내가 단</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 댓글</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et('/comment/userid')</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String userid}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>내가 좋아요한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 코스</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>get('/like/:userid)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{String userid}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 없을 때 {message: 'no comment'}                                                                                                 있을 때  {
+    "result": [
+        {
+            "courseid": 1,
+            "likecount": 3,
+            "viewcount": 10,
+            "commentcount": 3,
+            "userid": "hwanseung",
+            "image": null,
+            "overview": "yayaya",
+            "title": "go?"
+        },
+        {
+            "courseid": 2,
+            "likecount": 4,
+            "viewcount": 2,
+            "commentcount": 1,
+            "userid": "hwanseung",
+            "image": null,
+            "overview": "ss",
+            "title": "yeah~ let's get it"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">댓글 없을 때 {message: 'no </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>like</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'}                                                                                                 있을 때  {
+    "result": [
+        {
+            "courseid": 1,
+            "likecount": 3,
+            "viewcount": 10,
+            "commentcount": 3,
+            "userid": "hwanseung",
+            "image": null,
+            "overview": "yayaya",
+            "title": "go?"
+        },
+        {
+            "courseid": 2,
+            "likecount": 4,
+            "viewcount": 2,
+            "commentcount": 1,
+            "userid": "hwanseung",
+            "image": null,
+            "overview": "ss",
+            "title": "yeah~ let's get it"
+        }
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>내가 쓴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 글</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et('/post/:userid)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{String userid}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>review 단 글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>좋아요 누른 여행지 글</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get('/review/:userid)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>get('/triplike/:userid)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>댓글 없을 때 {message: 'no course</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'}                                                                                                 있을 때  {
+    "result": [
+        {
+            "courseid": 1,
+            "likecount": 3,
+            "viewcount": 10,
+            "commentcount": 3,
+            "userid": "hwanseung",
+            "image": null,
+            "overview": "yayaya",
+            "title": "go?"
+        },
+        {
+            "courseid": 2,
+            "likecount": 4,
+            "viewcount": 2,
+            "commentcount": 1,
+            "userid": "hwanseung",
+            "image": null,
+            "overview": "ss",
+            "title": "yeah~ let's get it"
+        }
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">댓글 없을 때 {message: 'no </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>review</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'}                                                                                                 있을 때  {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{
+    "result": [
+        {
+            "contentid": "232304",
+            "viewcount": 20,
+            "likecount": 8,
+            "commentcount": 13
+        },
+        {
+            "contentid": "1874417",
+            "viewcount": 85,
+            "likecount": 25,
+            "commentcount": 7
+        }
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>댓글 없을 때 {message: 'no like</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'}                                                                                                 있을 때  {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{
+    "result": [
+        {
+            "contentid": "232304",
+            "viewcount": 20,
+            "likecount": 8,
+            "commentcount": 13
+        },
+        {
+            "contentid": "1874417",
+            "viewcount": 85,
+            "likecount": 25,
+            "commentcount": 7
+        }
+    ]
+}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>course</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ourse상세히 보기 눌렀을 때</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost('/')</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String userid, String courseid}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "page": [
+        {
+            "courseid": "2",
+            "pageid": 1,
+            "image": "",
+            "title": "pig",
+            "content": "sehwan ",
+            "contentid": "1",
+            "contenttypeid": "32"
+        }
+    ],
+    "result": {
+        "courseid": 2,
+        "likecount": 4,
+        "viewcount": 2,
+        "commentcount": 1,
+        "userid": "hwanseung",
+        "image": null,
+        "overview": "ss",
+        "title": "yeah~ let's get it"
+    },
+    "message": "like"    (좋아요 안눌러져있을 때 unlike)
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>코스 작성하기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post('/edit')</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "main" : {
+  "userid" : "joo",
+  "title" : "go to korea",
+  "overview" : "good sopt"
+ },
+ "page":[
+  {
+   "title" : "joo",
+         "content" : "what time?"
+  },
+  {
+   "title" : "se",
+         "content" : "good enough"
+  }
+ ]
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>이미지는 지금</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 뺏어 나중에 다시해보자</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>message : 'ok'}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글 달기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost('/comment')</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ody: {String userid, courseid, content, file image}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{message: "success"}</t>
+  </si>
+  <si>
+    <t>좋아요 누르기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ost('/like')</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ody: {String userid, String courseid}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>좋아요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 누를 때 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>message: "like"} 좋아요 취소일때 : {message: "unlike"}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>댓글 전체</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 불러오기</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et('/comments/:courseid:/userid}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>p</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>arams: {String courseid, userid}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "result": [
+        {
+            "courseid": 2,
+            "userid": "hwanseung",
+            "content": "?? ???",
+            "date": "2017-09-07, 9:44:09 pm",
+            "commentid": 4,
+            "image": "https://joo97.s3.ap-northeast-2.amazonaws.com/1504820649708.jpg"
+        },
+        {
+            "courseid": 2,
+            "userid": "joo",
+            "content": "?? ???",
+            "date": "2017-09-20, 8:11:14 am",
+            "commentid": 12,
+            "image": null
+        }
+    ]
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행코스 검색</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>et('/list/:keyword/:userid)</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>String keyword,userid}</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "result": [
+        {
+            "courseid": 2,
+            "likecount": 4,
+            "viewcount": 2,
+            "commentcount": 1,
+            "userid": "hwanseung",
+            "image": null,
+            "overview": "ss",
+            "title": "yeah~ let's get it"
+        }
+    ]
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -434,7 +1525,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -452,6 +1543,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -795,10 +1889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46883692-0C33-4A4E-93B0-0F95304FA2DC}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -838,10 +1932,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -854,77 +1948,77 @@
     </row>
     <row r="5" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>7</v>
+      <c r="C5" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="198" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="96" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="409.5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="231" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -936,76 +2030,269 @@
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
+      <c r="E11" s="5" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="D16" s="2"/>
+      <c r="E16" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="297" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="297" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="396" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="280.5" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="330" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="231" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>96</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
